--- a/DataMgmt.xlsx
+++ b/DataMgmt.xlsx
@@ -4,32 +4,33 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" updateLinks="never" codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="6444" tabRatio="951" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="468" windowWidth="14808" windowHeight="6444" tabRatio="951" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Environment" sheetId="14" r:id="rId1"/>
     <sheet name="Driver" sheetId="13" r:id="rId2"/>
     <sheet name="LogIn" sheetId="9" r:id="rId3"/>
-    <sheet name="Application" sheetId="64" r:id="rId4"/>
-    <sheet name="Customer" sheetId="66" r:id="rId5"/>
-    <sheet name="PriceList" sheetId="68" r:id="rId6"/>
-    <sheet name="ServicePl" sheetId="69" r:id="rId7"/>
-    <sheet name="ConsumeRate" sheetId="70" r:id="rId8"/>
-    <sheet name="Invoice" sheetId="71" r:id="rId9"/>
-    <sheet name="UpdateCustomer" sheetId="73" r:id="rId10"/>
-    <sheet name="UpdateApplication" sheetId="72" r:id="rId11"/>
-    <sheet name="Service" sheetId="67" r:id="rId12"/>
-    <sheet name="UserManagment" sheetId="80" r:id="rId13"/>
-    <sheet name="Groups" sheetId="77" r:id="rId14"/>
-    <sheet name="Keys" sheetId="78" r:id="rId15"/>
-    <sheet name="GenerateInvoice" sheetId="75" r:id="rId16"/>
-    <sheet name="ResellerPercentage" sheetId="79" r:id="rId17"/>
-    <sheet name="GetInvoice" sheetId="81" r:id="rId18"/>
-    <sheet name="GetServicePriceList" sheetId="82" r:id="rId19"/>
+    <sheet name="Application1" sheetId="64" r:id="rId4"/>
+    <sheet name="Application" sheetId="83" r:id="rId5"/>
+    <sheet name="Customer" sheetId="66" r:id="rId6"/>
+    <sheet name="PriceList" sheetId="68" r:id="rId7"/>
+    <sheet name="ServicePl" sheetId="69" r:id="rId8"/>
+    <sheet name="ConsumeRate" sheetId="70" r:id="rId9"/>
+    <sheet name="Invoice" sheetId="71" r:id="rId10"/>
+    <sheet name="UpdateCustomer" sheetId="73" r:id="rId11"/>
+    <sheet name="UpdateApplication" sheetId="72" r:id="rId12"/>
+    <sheet name="Service" sheetId="67" r:id="rId13"/>
+    <sheet name="UserManagment" sheetId="80" r:id="rId14"/>
+    <sheet name="Groups" sheetId="77" r:id="rId15"/>
+    <sheet name="Keys" sheetId="78" r:id="rId16"/>
+    <sheet name="GenerateInvoice" sheetId="75" r:id="rId17"/>
+    <sheet name="ResellerPercentage" sheetId="79" r:id="rId18"/>
+    <sheet name="GetInvoice" sheetId="81" r:id="rId19"/>
+    <sheet name="GetServicePriceList" sheetId="82" r:id="rId20"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Driver!$D$1:$D$11</definedName>
@@ -42,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1320" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1428" uniqueCount="333">
   <si>
     <t>Password</t>
   </si>
@@ -2766,6 +2767,622 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:W19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.77734375" customWidth="1"/>
+    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.77734375" customWidth="1"/>
+    <col min="6" max="6" width="19" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.77734375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="17.21875" style="46" customWidth="1"/>
+    <col min="21" max="21" width="12" style="46" customWidth="1"/>
+    <col min="22" max="22" width="9.21875" style="46"/>
+    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" t="s">
+        <v>106</v>
+      </c>
+      <c r="E2">
+        <v>1000001923</v>
+      </c>
+      <c r="F2" s="45">
+        <v>43285</v>
+      </c>
+      <c r="G2" s="45">
+        <v>43287</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>257</v>
+      </c>
+      <c r="I2" s="46"/>
+      <c r="J2" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K2" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L2" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M2" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N2" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O2" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P2" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q2" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" t="b">
+        <v>1</v>
+      </c>
+      <c r="S2" t="b">
+        <v>0</v>
+      </c>
+      <c r="T2" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="U2" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="V2" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W2" s="46" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3">
+        <v>1000001923</v>
+      </c>
+      <c r="F3" s="45">
+        <v>43285</v>
+      </c>
+      <c r="G3" s="45">
+        <v>43287</v>
+      </c>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46">
+        <v>2</v>
+      </c>
+      <c r="J3" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K3" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L3" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N3" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O3" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P3" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q3" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R3" t="b">
+        <v>1</v>
+      </c>
+      <c r="S3" t="b">
+        <v>0</v>
+      </c>
+      <c r="T3" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="V3" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A4" s="14">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" t="s">
+        <v>106</v>
+      </c>
+      <c r="E4">
+        <v>1000001923</v>
+      </c>
+      <c r="F4" s="45">
+        <v>43285</v>
+      </c>
+      <c r="G4" s="45"/>
+      <c r="H4" s="46">
+        <v>43287</v>
+      </c>
+      <c r="I4" s="46">
+        <v>2</v>
+      </c>
+      <c r="J4" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K4" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L4" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M4" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N4" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O4" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P4" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q4" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R4" t="b">
+        <v>1</v>
+      </c>
+      <c r="S4" t="b">
+        <v>0</v>
+      </c>
+      <c r="T4" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="U4" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="W4" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A5" s="14">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" t="s">
+        <v>106</v>
+      </c>
+      <c r="E5">
+        <v>1000001923</v>
+      </c>
+      <c r="F5" s="45"/>
+      <c r="G5" s="45">
+        <v>43287</v>
+      </c>
+      <c r="H5" s="46">
+        <v>43287</v>
+      </c>
+      <c r="I5" s="46">
+        <v>2</v>
+      </c>
+      <c r="J5" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K5" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L5" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N5" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O5" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P5" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q5" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R5" t="b">
+        <v>1</v>
+      </c>
+      <c r="S5" t="b">
+        <v>0</v>
+      </c>
+      <c r="T5" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="U5" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="V5" s="46" t="s">
+        <v>255</v>
+      </c>
+      <c r="W5" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A6" s="14">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" t="s">
+        <v>106</v>
+      </c>
+      <c r="F6" s="45">
+        <v>43285</v>
+      </c>
+      <c r="G6" s="45">
+        <v>43287</v>
+      </c>
+      <c r="H6" s="46">
+        <v>43287</v>
+      </c>
+      <c r="I6" s="46">
+        <v>2</v>
+      </c>
+      <c r="J6" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K6" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L6" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M6" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N6" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O6" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P6" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q6" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R6" t="b">
+        <v>1</v>
+      </c>
+      <c r="S6" t="b">
+        <v>0</v>
+      </c>
+      <c r="T6" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="V6" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W6" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A7" s="14">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" t="s">
+        <v>78</v>
+      </c>
+      <c r="E7">
+        <v>1000001923</v>
+      </c>
+      <c r="F7" s="45">
+        <v>43285</v>
+      </c>
+      <c r="G7" s="45">
+        <v>43287</v>
+      </c>
+      <c r="H7" s="46">
+        <v>43287</v>
+      </c>
+      <c r="I7" s="46">
+        <v>2</v>
+      </c>
+      <c r="J7" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K7" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L7" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M7" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N7" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O7" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P7" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q7" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R7" t="b">
+        <v>1</v>
+      </c>
+      <c r="S7" t="b">
+        <v>0</v>
+      </c>
+      <c r="T7" s="46" t="s">
+        <v>314</v>
+      </c>
+      <c r="U7" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="V7" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W7" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="A8" s="14">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" t="s">
+        <v>78</v>
+      </c>
+      <c r="J8" s="46" t="s">
+        <v>178</v>
+      </c>
+      <c r="K8" s="46" t="s">
+        <v>179</v>
+      </c>
+      <c r="L8" s="46" t="s">
+        <v>180</v>
+      </c>
+      <c r="M8" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="N8" s="46" t="s">
+        <v>181</v>
+      </c>
+      <c r="O8" s="46" t="s">
+        <v>182</v>
+      </c>
+      <c r="P8" s="46" t="s">
+        <v>156</v>
+      </c>
+      <c r="Q8" s="46" t="s">
+        <v>35</v>
+      </c>
+      <c r="R8" t="b">
+        <v>1</v>
+      </c>
+      <c r="S8" t="b">
+        <v>0</v>
+      </c>
+      <c r="T8" s="46" t="s">
+        <v>301</v>
+      </c>
+      <c r="U8" s="46" t="s">
+        <v>313</v>
+      </c>
+      <c r="V8" s="46" t="s">
+        <v>75</v>
+      </c>
+      <c r="W8" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H9" s="46"/>
+    </row>
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H10" s="46"/>
+    </row>
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H11" s="46"/>
+    </row>
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H12" s="46"/>
+    </row>
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H13" s="46"/>
+    </row>
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H14" s="46"/>
+    </row>
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H15" s="46"/>
+    </row>
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+      <c r="H16" s="46"/>
+    </row>
+    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H17" s="46"/>
+    </row>
+    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H18" s="46"/>
+    </row>
+    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
+      <c r="H19" s="46"/>
+    </row>
+  </sheetData>
+  <dataConsolidate/>
+  <dataValidations count="2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S8">
+      <formula1>"TRUE,FALSE"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8">
+      <formula1>"YES,NO"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="B3" r:id="rId2"/>
+    <hyperlink ref="B4" r:id="rId3"/>
+    <hyperlink ref="B5" r:id="rId4"/>
+    <hyperlink ref="B6" r:id="rId5"/>
+    <hyperlink ref="B7" r:id="rId6"/>
+    <hyperlink ref="B8" r:id="rId7"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId8"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3170,7 +3787,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O8"/>
   <sheetViews>
@@ -3556,7 +4173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N19"/>
   <sheetViews>
@@ -4040,7 +4657,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G40"/>
   <sheetViews>
@@ -4505,7 +5122,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -4884,7 +5501,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -5263,7 +5880,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N20"/>
   <sheetViews>
@@ -5863,7 +6480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:P20"/>
   <sheetViews>
@@ -6241,7 +6858,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M20"/>
   <sheetViews>
@@ -6894,329 +7511,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.44140625" style="46" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>323</v>
-      </c>
-      <c r="E1" s="13"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="13"/>
-      <c r="J1" s="1"/>
-      <c r="K1" s="1"/>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A2" s="31">
-        <v>1</v>
-      </c>
-      <c r="B2" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C2" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D2" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="H2" s="33"/>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A3" s="31">
-        <v>2</v>
-      </c>
-      <c r="B3" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C3" s="33" t="s">
-        <v>302</v>
-      </c>
-      <c r="D3" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A4" s="31">
-        <v>3</v>
-      </c>
-      <c r="B4" s="59" t="s">
-        <v>283</v>
-      </c>
-      <c r="C4" s="33"/>
-      <c r="D4" s="32" t="s">
-        <v>325</v>
-      </c>
-      <c r="E4" s="33"/>
-      <c r="F4" s="33"/>
-      <c r="G4" s="33"/>
-      <c r="H4" s="33"/>
-      <c r="I4" s="33"/>
-      <c r="J4" s="33"/>
-      <c r="K4" s="33"/>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A5" s="31">
-        <v>4</v>
-      </c>
-      <c r="B5" s="59"/>
-      <c r="C5" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D5" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E5" s="33"/>
-      <c r="F5" s="33"/>
-      <c r="G5" s="33"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="33"/>
-      <c r="J5" s="33"/>
-      <c r="K5" s="33"/>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A6" s="31">
-        <v>5</v>
-      </c>
-      <c r="B6" s="59" t="s">
-        <v>301</v>
-      </c>
-      <c r="C6" s="33" t="s">
-        <v>282</v>
-      </c>
-      <c r="D6" s="32" t="s">
-        <v>324</v>
-      </c>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="33"/>
-      <c r="K6" s="33"/>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A7" s="31"/>
-      <c r="B7" s="59"/>
-      <c r="C7" s="33"/>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="33"/>
-      <c r="G7" s="33"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="33"/>
-      <c r="K7" s="33"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A8" s="31"/>
-      <c r="B8" s="59"/>
-      <c r="C8" s="33"/>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="33"/>
-      <c r="G8" s="33"/>
-      <c r="H8" s="33"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="33"/>
-      <c r="K8" s="33"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A9" s="33"/>
-      <c r="B9" s="59"/>
-      <c r="C9" s="33"/>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="33"/>
-      <c r="G9" s="33"/>
-      <c r="H9" s="33"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="33"/>
-      <c r="K9" s="33"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A10" s="33"/>
-      <c r="B10" s="59"/>
-      <c r="C10" s="33"/>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="33"/>
-      <c r="G10" s="33"/>
-      <c r="H10" s="33"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="33"/>
-      <c r="K10" s="33"/>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A11" s="33"/>
-      <c r="B11" s="59"/>
-      <c r="C11" s="33"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="33"/>
-      <c r="G11" s="33"/>
-      <c r="H11" s="33"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="33"/>
-      <c r="K11" s="33"/>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A12" s="33"/>
-      <c r="B12" s="59"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="33"/>
-      <c r="K12" s="33"/>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A13" s="33"/>
-      <c r="B13" s="59"/>
-      <c r="C13" s="33"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="33"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="33"/>
-      <c r="K13" s="33"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A14" s="33"/>
-      <c r="B14" s="59"/>
-      <c r="C14" s="33"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="33"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="33"/>
-      <c r="K14" s="33"/>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A15" s="33"/>
-      <c r="B15" s="59"/>
-      <c r="C15" s="33"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="33"/>
-      <c r="K15" s="33"/>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="59"/>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A17" s="33"/>
-      <c r="B17" s="59"/>
-      <c r="C17" s="33"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="33"/>
-      <c r="F17" s="33"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="33"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="33"/>
-      <c r="K17" s="33"/>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A18" s="33"/>
-      <c r="B18" s="59"/>
-      <c r="C18" s="33"/>
-      <c r="D18" s="33"/>
-      <c r="E18" s="33"/>
-      <c r="F18" s="33"/>
-      <c r="G18" s="33"/>
-      <c r="H18" s="33"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="33"/>
-      <c r="K18" s="33"/>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A19" s="33"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="33"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="33"/>
-      <c r="G19" s="33"/>
-      <c r="H19" s="33"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="33"/>
-      <c r="K19" s="33"/>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A20" s="33"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.21875" defaultRowHeight="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -8176,6 +8478,321 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6.44140625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.44140625" style="46" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>323</v>
+      </c>
+      <c r="E1" s="13"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="31">
+        <v>1</v>
+      </c>
+      <c r="B2" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C2" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="31">
+        <v>2</v>
+      </c>
+      <c r="B3" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C3" s="33" t="s">
+        <v>302</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="31">
+        <v>3</v>
+      </c>
+      <c r="B4" s="59" t="s">
+        <v>283</v>
+      </c>
+      <c r="C4" s="33"/>
+      <c r="D4" s="32" t="s">
+        <v>325</v>
+      </c>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
+      <c r="K4" s="33"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="31">
+        <v>4</v>
+      </c>
+      <c r="B5" s="59"/>
+      <c r="C5" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D5" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
+      <c r="K5" s="33"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="31">
+        <v>5</v>
+      </c>
+      <c r="B6" s="59" t="s">
+        <v>301</v>
+      </c>
+      <c r="C6" s="33" t="s">
+        <v>282</v>
+      </c>
+      <c r="D6" s="32" t="s">
+        <v>324</v>
+      </c>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="31"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="33"/>
+      <c r="G7" s="33"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="33"/>
+      <c r="J7" s="33"/>
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="31"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="33"/>
+      <c r="G8" s="33"/>
+      <c r="H8" s="33"/>
+      <c r="I8" s="33"/>
+      <c r="J8" s="33"/>
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="33"/>
+      <c r="B9" s="59"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+      <c r="H9" s="33"/>
+      <c r="I9" s="33"/>
+      <c r="J9" s="33"/>
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="33"/>
+      <c r="B10" s="59"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+      <c r="H10" s="33"/>
+      <c r="I10" s="33"/>
+      <c r="J10" s="33"/>
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="33"/>
+      <c r="B11" s="59"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+      <c r="H11" s="33"/>
+      <c r="I11" s="33"/>
+      <c r="J11" s="33"/>
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="33"/>
+      <c r="B12" s="59"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+      <c r="H12" s="33"/>
+      <c r="I12" s="33"/>
+      <c r="J12" s="33"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="33"/>
+      <c r="B13" s="59"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="33"/>
+      <c r="B14" s="59"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="33"/>
+      <c r="B15" s="59"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="33"/>
+      <c r="B16" s="59"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
+      <c r="H16" s="33"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="33"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="33"/>
+      <c r="F17" s="33"/>
+      <c r="G17" s="33"/>
+      <c r="H17" s="33"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="33"/>
+      <c r="K17" s="33"/>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="33"/>
+      <c r="B18" s="59"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="33"/>
+      <c r="E18" s="33"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
+      <c r="H18" s="33"/>
+      <c r="I18" s="33"/>
+      <c r="J18" s="33"/>
+      <c r="K18" s="33"/>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="33"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="33"/>
+      <c r="E19" s="33"/>
+      <c r="F19" s="33"/>
+      <c r="G19" s="33"/>
+      <c r="H19" s="33"/>
+      <c r="I19" s="33"/>
+      <c r="J19" s="33"/>
+      <c r="K19" s="33"/>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="33"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet3"/>
@@ -8269,10 +8886,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N56"/>
+  <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:N10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -8671,309 +9288,6 @@
       </c>
       <c r="M10" s="6"/>
       <c r="N10" s="41"/>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="6"/>
-      <c r="N11" s="41"/>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I12" s="41"/>
-      <c r="J12" s="41"/>
-      <c r="K12" s="41"/>
-      <c r="L12" s="41"/>
-      <c r="M12" s="6"/>
-      <c r="N12" s="41"/>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="6"/>
-      <c r="N13" s="41"/>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I14" s="41"/>
-      <c r="J14" s="41"/>
-      <c r="K14" s="41"/>
-      <c r="L14" s="41"/>
-      <c r="M14" s="6"/>
-      <c r="N14" s="41"/>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="6"/>
-      <c r="N15" s="41"/>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="I16" s="41"/>
-      <c r="J16" s="41"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="6"/>
-      <c r="N16" s="41"/>
-    </row>
-    <row r="17" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="6"/>
-      <c r="N17" s="41"/>
-    </row>
-    <row r="18" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I18" s="41"/>
-      <c r="J18" s="41"/>
-      <c r="K18" s="41"/>
-      <c r="L18" s="41"/>
-      <c r="M18" s="6"/>
-      <c r="N18" s="41"/>
-    </row>
-    <row r="19" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="6"/>
-      <c r="N19" s="41"/>
-    </row>
-    <row r="20" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I20" s="41"/>
-      <c r="J20" s="41"/>
-      <c r="K20" s="41"/>
-      <c r="L20" s="41"/>
-      <c r="M20" s="6"/>
-      <c r="N20" s="41"/>
-    </row>
-    <row r="21" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I21" s="41"/>
-      <c r="J21" s="41"/>
-      <c r="K21" s="41"/>
-      <c r="L21" s="41"/>
-      <c r="M21" s="6"/>
-      <c r="N21" s="41"/>
-    </row>
-    <row r="22" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="6"/>
-      <c r="N22" s="41"/>
-    </row>
-    <row r="23" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I23" s="41"/>
-      <c r="J23" s="41"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="6"/>
-      <c r="N23" s="41"/>
-    </row>
-    <row r="24" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="6"/>
-      <c r="N24" s="41"/>
-    </row>
-    <row r="25" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I25" s="41"/>
-      <c r="J25" s="41"/>
-      <c r="K25" s="41"/>
-      <c r="L25" s="41"/>
-      <c r="M25" s="6"/>
-      <c r="N25" s="41"/>
-    </row>
-    <row r="26" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
-      <c r="L26" s="41"/>
-      <c r="M26" s="6"/>
-      <c r="N26" s="41"/>
-    </row>
-    <row r="27" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="6"/>
-      <c r="N27" s="41"/>
-    </row>
-    <row r="28" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I28" s="41"/>
-      <c r="J28" s="41"/>
-      <c r="K28" s="41"/>
-      <c r="L28" s="6"/>
-      <c r="M28" s="6"/>
-      <c r="N28" s="41"/>
-    </row>
-    <row r="29" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="6"/>
-      <c r="M29" s="6"/>
-      <c r="N29" s="41"/>
-    </row>
-    <row r="30" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I30" s="41"/>
-      <c r="J30" s="41"/>
-      <c r="K30" s="41"/>
-      <c r="L30" s="6"/>
-      <c r="M30" s="6"/>
-    </row>
-    <row r="31" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I31" s="41"/>
-      <c r="J31" s="41"/>
-      <c r="K31" s="41"/>
-      <c r="L31" s="6"/>
-      <c r="M31" s="6"/>
-    </row>
-    <row r="32" spans="9:14" x14ac:dyDescent="0.3">
-      <c r="I32" s="41"/>
-      <c r="J32" s="41"/>
-      <c r="K32" s="41"/>
-      <c r="L32" s="6"/>
-      <c r="M32" s="6"/>
-    </row>
-    <row r="33" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I33" s="41"/>
-      <c r="J33" s="41"/>
-      <c r="K33" s="41"/>
-      <c r="L33" s="6"/>
-      <c r="M33" s="6"/>
-    </row>
-    <row r="34" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
-      <c r="L34" s="6"/>
-      <c r="M34" s="6"/>
-    </row>
-    <row r="35" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I35" s="41"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="41"/>
-      <c r="L35" s="6"/>
-      <c r="M35" s="6"/>
-    </row>
-    <row r="36" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I36" s="41"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="41"/>
-      <c r="L36" s="6"/>
-      <c r="M36" s="6"/>
-    </row>
-    <row r="37" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I37" s="41"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="41"/>
-      <c r="L37" s="6"/>
-      <c r="M37" s="6"/>
-    </row>
-    <row r="38" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
-      <c r="L38" s="6"/>
-      <c r="M38" s="6"/>
-    </row>
-    <row r="39" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I39" s="41"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="41"/>
-      <c r="L39" s="6"/>
-      <c r="M39" s="6"/>
-    </row>
-    <row r="40" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I40" s="41"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="41"/>
-      <c r="L40" s="6"/>
-      <c r="M40" s="6"/>
-    </row>
-    <row r="41" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I41" s="41"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="41"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="6"/>
-    </row>
-    <row r="42" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I42" s="41"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="41"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="6"/>
-    </row>
-    <row r="43" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="M43" s="6"/>
-    </row>
-    <row r="44" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I44" s="41"/>
-      <c r="J44" s="41"/>
-      <c r="M44" s="6"/>
-    </row>
-    <row r="45" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I45" s="41"/>
-      <c r="J45" s="41"/>
-      <c r="M45" s="6"/>
-    </row>
-    <row r="46" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="M46" s="6"/>
-    </row>
-    <row r="47" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I47" s="41"/>
-      <c r="J47" s="41"/>
-    </row>
-    <row r="48" spans="9:13" x14ac:dyDescent="0.3">
-      <c r="I48" s="41"/>
-      <c r="J48" s="41"/>
-    </row>
-    <row r="49" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I49" s="41"/>
-      <c r="J49" s="41"/>
-    </row>
-    <row r="50" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I50" s="41"/>
-      <c r="J50" s="41"/>
-    </row>
-    <row r="51" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I51" s="41"/>
-      <c r="J51" s="41"/>
-    </row>
-    <row r="52" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I52" s="41"/>
-      <c r="J52" s="41"/>
-    </row>
-    <row r="53" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-    </row>
-    <row r="54" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I54" s="41"/>
-      <c r="J54" s="41"/>
-    </row>
-    <row r="55" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-    </row>
-    <row r="56" spans="9:10" x14ac:dyDescent="0.3">
-      <c r="I56" s="41"/>
-      <c r="J56" s="41"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -9011,10 +9325,439 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="G1" s="40" t="s">
+        <v>80</v>
+      </c>
+      <c r="H1" s="40" t="s">
+        <v>81</v>
+      </c>
+      <c r="I1" s="40" t="s">
+        <v>82</v>
+      </c>
+      <c r="J1" s="40" t="s">
+        <v>83</v>
+      </c>
+      <c r="K1" s="40" t="s">
+        <v>84</v>
+      </c>
+      <c r="L1" s="40" t="s">
+        <v>191</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="N1" s="40" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="14">
+        <v>1</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G2" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H2" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I2" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J2" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K2" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N2" s="41"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="14">
+        <v>2</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G3" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H3" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I3" s="41"/>
+      <c r="J3" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K3" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L3" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M3" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N3" s="41"/>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="15">
+        <v>3</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H4" s="41"/>
+      <c r="I4" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J4" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K4" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L4" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M4" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N4" s="41"/>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G5" s="41"/>
+      <c r="H5" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I5" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J5" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K5" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L5" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M5" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N5" s="41"/>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="15">
+        <v>5</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F6" s="3"/>
+      <c r="G6" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H6" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I6" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J6" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K6" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L6" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M6" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N6" s="41"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="15">
+        <v>6</v>
+      </c>
+      <c r="B7" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E7" s="3"/>
+      <c r="F7" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H7" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I7" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K7" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L7" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M7" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N7" s="41"/>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="15">
+        <v>7</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H8" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I8" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J8" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K8" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L8" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M8" s="6" t="s">
+        <v>212</v>
+      </c>
+      <c r="N8" s="41"/>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="15">
+        <v>8</v>
+      </c>
+      <c r="B9" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>97</v>
+      </c>
+      <c r="H9" s="41" t="s">
+        <v>98</v>
+      </c>
+      <c r="I9" s="41" t="s">
+        <v>14</v>
+      </c>
+      <c r="J9" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K9" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L9" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M9" s="6"/>
+      <c r="N9" s="41"/>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A10" s="15">
+        <v>9</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="3"/>
+      <c r="F10" s="3"/>
+      <c r="G10" s="41"/>
+      <c r="H10" s="41"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="54" t="s">
+        <v>211</v>
+      </c>
+      <c r="K10" s="41" t="s">
+        <v>211</v>
+      </c>
+      <c r="L10" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="M10" s="6"/>
+      <c r="N10" s="41"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1"/>
+    <hyperlink ref="J2" r:id="rId2"/>
+    <hyperlink ref="B3" r:id="rId3"/>
+    <hyperlink ref="B4" r:id="rId4"/>
+    <hyperlink ref="B5" r:id="rId5"/>
+    <hyperlink ref="B6" r:id="rId6"/>
+    <hyperlink ref="B7" r:id="rId7"/>
+    <hyperlink ref="J3" r:id="rId8"/>
+    <hyperlink ref="B8" r:id="rId9"/>
+    <hyperlink ref="B9" r:id="rId10"/>
+    <hyperlink ref="B10" r:id="rId11"/>
+    <hyperlink ref="J4" r:id="rId12"/>
+    <hyperlink ref="J5" r:id="rId13"/>
+    <hyperlink ref="J6" r:id="rId14"/>
+    <hyperlink ref="J7" r:id="rId15"/>
+    <hyperlink ref="J8" r:id="rId16"/>
+    <hyperlink ref="J9" r:id="rId17"/>
+    <hyperlink ref="J10" r:id="rId18"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V91"/>
   <sheetViews>
     <sheetView topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T11" sqref="T11"/>
+      <selection activeCell="L11" sqref="A11:XFD11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -10989,7 +11732,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J38"/>
   <sheetViews>
@@ -11518,12 +12261,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -11754,7 +12497,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I21"/>
   <sheetViews>
@@ -12104,620 +12847,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId6"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W19"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.77734375" customWidth="1"/>
-    <col min="4" max="4" width="12.21875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="18.77734375" customWidth="1"/>
-    <col min="6" max="6" width="19" customWidth="1"/>
-    <col min="7" max="7" width="11.5546875" customWidth="1"/>
-    <col min="8" max="8" width="20.21875" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.5546875" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.77734375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.21875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="18.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="15.21875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="14" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="15.77734375" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="19.77734375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="17.21875" style="46" customWidth="1"/>
-    <col min="21" max="21" width="12" style="46" customWidth="1"/>
-    <col min="22" max="22" width="9.21875" style="46"/>
-    <col min="23" max="23" width="16" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:23" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>168</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>281</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>276</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A2" s="14">
-        <v>1</v>
-      </c>
-      <c r="B2" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C2" t="s">
-        <v>78</v>
-      </c>
-      <c r="D2" t="s">
-        <v>106</v>
-      </c>
-      <c r="E2">
-        <v>1000001923</v>
-      </c>
-      <c r="F2" s="45">
-        <v>43285</v>
-      </c>
-      <c r="G2" s="45">
-        <v>43287</v>
-      </c>
-      <c r="H2" s="46" t="s">
-        <v>257</v>
-      </c>
-      <c r="I2" s="46"/>
-      <c r="J2" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K2" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L2" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M2" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N2" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O2" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P2" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q2" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R2" t="b">
-        <v>1</v>
-      </c>
-      <c r="S2" t="b">
-        <v>0</v>
-      </c>
-      <c r="T2" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="U2" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="V2" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="W2" s="46" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A3" s="14">
-        <v>2</v>
-      </c>
-      <c r="B3" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C3" t="s">
-        <v>78</v>
-      </c>
-      <c r="D3" t="s">
-        <v>106</v>
-      </c>
-      <c r="E3">
-        <v>1000001923</v>
-      </c>
-      <c r="F3" s="45">
-        <v>43285</v>
-      </c>
-      <c r="G3" s="45">
-        <v>43287</v>
-      </c>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46">
-        <v>2</v>
-      </c>
-      <c r="J3" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K3" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L3" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M3" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N3" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O3" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P3" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q3" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R3" t="b">
-        <v>1</v>
-      </c>
-      <c r="S3" t="b">
-        <v>0</v>
-      </c>
-      <c r="T3" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="V3" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="W3" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A4" s="14">
-        <v>3</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" t="s">
-        <v>78</v>
-      </c>
-      <c r="D4" t="s">
-        <v>106</v>
-      </c>
-      <c r="E4">
-        <v>1000001923</v>
-      </c>
-      <c r="F4" s="45">
-        <v>43285</v>
-      </c>
-      <c r="G4" s="45"/>
-      <c r="H4" s="46">
-        <v>43287</v>
-      </c>
-      <c r="I4" s="46">
-        <v>2</v>
-      </c>
-      <c r="J4" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K4" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L4" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M4" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N4" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O4" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P4" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q4" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R4" t="b">
-        <v>1</v>
-      </c>
-      <c r="S4" t="b">
-        <v>0</v>
-      </c>
-      <c r="T4" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="U4" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="W4" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A5" s="14">
-        <v>4</v>
-      </c>
-      <c r="B5" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C5" t="s">
-        <v>78</v>
-      </c>
-      <c r="D5" t="s">
-        <v>106</v>
-      </c>
-      <c r="E5">
-        <v>1000001923</v>
-      </c>
-      <c r="F5" s="45"/>
-      <c r="G5" s="45">
-        <v>43287</v>
-      </c>
-      <c r="H5" s="46">
-        <v>43287</v>
-      </c>
-      <c r="I5" s="46">
-        <v>2</v>
-      </c>
-      <c r="J5" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K5" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L5" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M5" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N5" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O5" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P5" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q5" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R5" t="b">
-        <v>1</v>
-      </c>
-      <c r="S5" t="b">
-        <v>0</v>
-      </c>
-      <c r="T5" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="U5" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="V5" s="46" t="s">
-        <v>255</v>
-      </c>
-      <c r="W5" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A6" s="14">
-        <v>5</v>
-      </c>
-      <c r="B6" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C6" t="s">
-        <v>78</v>
-      </c>
-      <c r="D6" t="s">
-        <v>106</v>
-      </c>
-      <c r="F6" s="45">
-        <v>43285</v>
-      </c>
-      <c r="G6" s="45">
-        <v>43287</v>
-      </c>
-      <c r="H6" s="46">
-        <v>43287</v>
-      </c>
-      <c r="I6" s="46">
-        <v>2</v>
-      </c>
-      <c r="J6" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K6" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L6" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M6" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N6" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O6" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P6" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q6" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R6" t="b">
-        <v>1</v>
-      </c>
-      <c r="S6" t="b">
-        <v>0</v>
-      </c>
-      <c r="T6" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="V6" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="W6" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A7" s="14">
-        <v>6</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C7" t="s">
-        <v>78</v>
-      </c>
-      <c r="E7">
-        <v>1000001923</v>
-      </c>
-      <c r="F7" s="45">
-        <v>43285</v>
-      </c>
-      <c r="G7" s="45">
-        <v>43287</v>
-      </c>
-      <c r="H7" s="46">
-        <v>43287</v>
-      </c>
-      <c r="I7" s="46">
-        <v>2</v>
-      </c>
-      <c r="J7" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K7" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L7" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M7" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N7" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O7" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P7" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q7" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R7" t="b">
-        <v>1</v>
-      </c>
-      <c r="S7" t="b">
-        <v>0</v>
-      </c>
-      <c r="T7" s="46" t="s">
-        <v>314</v>
-      </c>
-      <c r="U7" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="V7" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="W7" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="A8" s="14">
-        <v>7</v>
-      </c>
-      <c r="B8" s="36" t="s">
-        <v>77</v>
-      </c>
-      <c r="C8" t="s">
-        <v>78</v>
-      </c>
-      <c r="J8" s="46" t="s">
-        <v>178</v>
-      </c>
-      <c r="K8" s="46" t="s">
-        <v>179</v>
-      </c>
-      <c r="L8" s="46" t="s">
-        <v>180</v>
-      </c>
-      <c r="M8" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="N8" s="46" t="s">
-        <v>181</v>
-      </c>
-      <c r="O8" s="46" t="s">
-        <v>182</v>
-      </c>
-      <c r="P8" s="46" t="s">
-        <v>156</v>
-      </c>
-      <c r="Q8" s="46" t="s">
-        <v>35</v>
-      </c>
-      <c r="R8" t="b">
-        <v>1</v>
-      </c>
-      <c r="S8" t="b">
-        <v>0</v>
-      </c>
-      <c r="T8" s="46" t="s">
-        <v>301</v>
-      </c>
-      <c r="U8" s="46" t="s">
-        <v>313</v>
-      </c>
-      <c r="V8" s="46" t="s">
-        <v>75</v>
-      </c>
-      <c r="W8" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H9" s="46"/>
-    </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H10" s="46"/>
-    </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H11" s="46"/>
-    </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H12" s="46"/>
-    </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H13" s="46"/>
-    </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H14" s="46"/>
-    </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H15" s="46"/>
-    </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
-      <c r="H16" s="46"/>
-    </row>
-    <row r="17" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H17" s="46"/>
-    </row>
-    <row r="18" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H18" s="46"/>
-    </row>
-    <row r="19" spans="8:8" x14ac:dyDescent="0.3">
-      <c r="H19" s="46"/>
-    </row>
-  </sheetData>
-  <dataConsolidate/>
-  <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="R2:S8">
-      <formula1>"TRUE,FALSE"</formula1>
-    </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="Q2:Q8">
-      <formula1>"YES,NO"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1"/>
-    <hyperlink ref="B3" r:id="rId2"/>
-    <hyperlink ref="B4" r:id="rId3"/>
-    <hyperlink ref="B5" r:id="rId4"/>
-    <hyperlink ref="B6" r:id="rId5"/>
-    <hyperlink ref="B7" r:id="rId6"/>
-    <hyperlink ref="B8" r:id="rId7"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId8"/>
-</worksheet>
 </file>